--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\UiPath\ConocoPhillips_DU\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A724E54-9CC8-49F0-97B8-40F30CC11E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDCB25D-AF64-4690-9667-169A024AEBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
